--- a/testCase/Case1.xlsx
+++ b/testCase/Case1.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/JavaWorkspace/InterfaceTest/testCase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="28260" yWindow="10500" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mail" sheetId="1" r:id="rId1"/>
     <sheet name="testCase" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,18 +45,6 @@
   </si>
   <si>
     <t>P3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,19 +91,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -143,6 +141,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -189,12 +192,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -221,14 +224,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -255,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,12 +435,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -444,21 +449,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A6" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.875" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,64 +480,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -543,16 +507,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E7" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,25 +532,65 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/Case1.xlsx
+++ b/testCase/Case1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28260" yWindow="10500" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="22520" yWindow="7340" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mail" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,22 @@
   </si>
   <si>
     <t>http.send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertResContain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,16 +466,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A4:XFD6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,6 +513,53 @@
       </c>
       <c r="B3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -511,10 +574,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A2:E7"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/testCase/Case1.xlsx
+++ b/testCase/Case1.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/JavaWorkspace/InterfaceTest/testCase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22520" yWindow="7340" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="22515" yWindow="7335" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="mail" sheetId="1" r:id="rId1"/>
-    <sheet name="testCase" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="testCase" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -107,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -243,7 +237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -451,13 +445,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="45.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -465,124 +550,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -610,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -618,7 +598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -629,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -640,7 +620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -651,7 +631,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>

--- a/testCase/Case1.xlsx
+++ b/testCase/Case1.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/JavaWorkspace/InterfaceTest/testCase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22515" yWindow="7335" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="17640" yWindow="6360" windowWidth="21360" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,14 +100,148 @@
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权接口</t>
+    <rPh sb="0" eb="1">
+      <t>sou'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.addUrlParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP//login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名密码错误</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.clearUrlParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名为空</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码为空</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名不存在</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'cun'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted555555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码错误</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名包含特殊字符</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao'h</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>te's</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zi'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,21 +584,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="45.875" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,9 +616,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -487,17 +627,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -506,9 +646,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -517,9 +657,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -531,15 +671,340 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -550,19 +1015,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +1044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -590,7 +1055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -598,7 +1063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -609,7 +1074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -620,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -631,7 +1096,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>

--- a/testCase/Case1.xlsx
+++ b/testCase/Case1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="6360" windowWidth="21360" windowHeight="11640"/>
+    <workbookView xWindow="19180" yWindow="3660" windowWidth="21780" windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="78">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,288 @@
   </si>
   <si>
     <t>ted@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录获取用户信息</t>
+    <rPh sb="0" eb="1">
+      <t>wei'deng'lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP//getUserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您还未登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录调登出接口</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP//logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.getJsonValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户信息</t>
+    <rPh sb="0" eb="1">
+      <t>cha'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP//getUserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您，登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertResContain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法查询</t>
+    <rPh sb="0" eb="1">
+      <t>fei'fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录</t>
+    <rPh sb="0" eb="1">
+      <t>tui'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP//logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法查询其他用户</t>
+    <rPh sb="0" eb="1">
+      <t>fei'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yong'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数错误</t>
+    <rPh sb="0" eb="1">
+      <t>can's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.testingedu.com.cn/inter/HTTP//register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户名为空</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei'kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahaha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tedted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册密码为空</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mi'ma</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册昵称为空</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ni'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tedtedted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.addUrlEncodedParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈</t>
+    <rPh sb="0" eb="1">
+      <t>ha'ha'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ted1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已被注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已被注册</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'c</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,18 +867,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -690,10 +972,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>123456</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -701,10 +980,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>123456</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -712,13 +994,10 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>401</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -729,18 +1008,24 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -748,13 +1033,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -762,10 +1041,13 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -773,13 +1055,10 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>401</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -787,35 +1066,38 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -823,10 +1105,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -834,13 +1113,13 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>401</v>
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -848,49 +1127,52 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>123456</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -898,10 +1180,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -909,13 +1188,13 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>401</v>
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -923,49 +1202,52 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30">
-        <v>123456</v>
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -973,10 +1255,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -984,13 +1263,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <v>401</v>
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -998,13 +1277,925 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
         <v>25</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D36" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" t="s">
+        <v>65</v>
+      </c>
+      <c r="D97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/Case1.xlsx
+++ b/testCase/Case1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19180" yWindow="3660" windowWidth="21780" windowHeight="16760"/>
+    <workbookView xWindow="11780" yWindow="2540" windowWidth="21780" windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="80">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,6 +517,12 @@
       <t>zhu'c</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http.set</t>
+  </si>
+  <si>
+    <t>http.post</t>
   </si>
 </sst>
 </file>
@@ -870,7 +876,7 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -903,7 +909,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -914,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -994,7 +1000,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -1066,7 +1072,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1141,7 +1147,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -1216,7 +1222,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -1291,7 +1297,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -1352,7 +1358,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
@@ -1399,7 +1405,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>41</v>
@@ -1446,7 +1452,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1457,7 +1463,7 @@
         <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1515,7 +1521,7 @@
         <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
         <v>23</v>
@@ -1590,7 +1596,7 @@
         <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
         <v>47</v>
@@ -1673,7 +1679,7 @@
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
         <v>47</v>
@@ -1720,7 +1726,7 @@
         <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
         <v>54</v>
@@ -1767,7 +1773,7 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -1778,7 +1784,7 @@
         <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1861,7 +1867,7 @@
         <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
         <v>59</v>
@@ -1961,7 +1967,7 @@
         <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
         <v>59</v>
@@ -2061,7 +2067,7 @@
         <v>70</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
         <v>59</v>
@@ -2164,7 +2170,7 @@
         <v>77</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C106" t="s">
         <v>59</v>
